--- a/jpcore-r4/feature/注射カテゴリ追加/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/注射カテゴリ追加/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T21:43:11+00:00</t>
+    <t>2022-12-03T06:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
